--- a/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
+++ b/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
+++ b/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId3"/>
+    <sheet name="Users" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <t>Password</t>
   </si>
@@ -89,6 +90,9 @@
   </si>
   <si>
     <t>UNM</t>
+  </si>
+  <si>
+    <t>UMNDD</t>
   </si>
 </sst>
 </file>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,17 +493,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,77 +511,35 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,10 +547,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="C12" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="C20" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="C22" r:id="rId13"/>
+    <hyperlink ref="D22" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,30 +879,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -659,19 +896,19 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,22 +948,22 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -735,34 +972,6 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -770,10 +979,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
+++ b/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="1" r:id="rId3"/>
     <sheet name="Users" sheetId="3" r:id="rId4"/>
+    <sheet name="MoveIn" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
   <si>
     <t>Password</t>
   </si>
@@ -93,6 +94,108 @@
   </si>
   <si>
     <t>UMNDD</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Ntitle</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Pnumber</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Answer1</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Answer2</t>
+  </si>
+  <si>
+    <t>PO33 1AT</t>
+  </si>
+  <si>
+    <t>155 MARLBOROUGH ROAD,RYDE,PO33 1AT</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>FTest21</t>
+  </si>
+  <si>
+    <t>MTest21</t>
+  </si>
+  <si>
+    <t>LTest21</t>
+  </si>
+  <si>
+    <t>25/10/1985</t>
+  </si>
+  <si>
+    <t>test2A@yahoo.com</t>
+  </si>
+  <si>
+    <t>What was the model of the first car you owned?</t>
+  </si>
+  <si>
+    <t>Maruti</t>
+  </si>
+  <si>
+    <t>What is the name of your first pet?</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>MPNDD</t>
+  </si>
+  <si>
+    <t>APNDD</t>
+  </si>
+  <si>
+    <t>UPNDD</t>
+  </si>
+  <si>
+    <t>MPNDDC</t>
+  </si>
+  <si>
+    <t>PostCode2</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>PO33 2JT</t>
+  </si>
+  <si>
+    <t>19 RIBOLEAU STREET, RYDE, PO33 2JT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -130,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,12 +256,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -169,6 +283,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,7 +956,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -986,4 +1103,317 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="7">
+        <v>9818156878</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="7">
+        <v>9818156878</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7">
+        <v>9818156878</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7">
+        <v>9818156878</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="M4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="M5" r:id="rId7"/>
+    <hyperlink ref="N5" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
 </file>
--- a/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
+++ b/SoutherWater_AutomationFrameWork/src/test/resources/dataSource/SWTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="56">
   <si>
     <t>Password</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,9 +633,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -647,16 +645,12 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +950,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1111,7 @@
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
